--- a/data/trans_orig/P1418-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1418-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>115301</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>97735</v>
+        <v>95816</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>136862</v>
+        <v>135550</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1117558305419086</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09472973479830273</v>
+        <v>0.09286992819089045</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1326533817442505</v>
+        <v>0.1313819232855111</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>230</v>
@@ -765,19 +765,19 @@
         <v>237152</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>209110</v>
+        <v>206862</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>264218</v>
+        <v>266054</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1803282101447223</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1590049960249725</v>
+        <v>0.1572962906575875</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2009087486810999</v>
+        <v>0.2023051064334408</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>349</v>
@@ -786,19 +786,19 @@
         <v>352453</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>318036</v>
+        <v>320347</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>389215</v>
+        <v>388110</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1501822152202229</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1355171360814706</v>
+        <v>0.136501651926895</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1658469353363745</v>
+        <v>0.1653759253142604</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>916422</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>894861</v>
+        <v>896173</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>933988</v>
+        <v>935907</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8882441694580914</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8673466182557493</v>
+        <v>0.8686180767144889</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9052702652016958</v>
+        <v>0.9071300718091095</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1061</v>
@@ -836,19 +836,19 @@
         <v>1077961</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1050895</v>
+        <v>1049059</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1106003</v>
+        <v>1108251</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8196717898552777</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7990912513189</v>
+        <v>0.7976948935665591</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8409950039750272</v>
+        <v>0.8427037093424122</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1980</v>
@@ -857,19 +857,19 @@
         <v>1994382</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1957620</v>
+        <v>1958725</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2028799</v>
+        <v>2026488</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8498177847797771</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8341530646636255</v>
+        <v>0.8346240746857397</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8644828639185296</v>
+        <v>0.8634983480731051</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>49866</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37799</v>
+        <v>37400</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64867</v>
+        <v>65006</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0294470298406735</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02232095101258629</v>
+        <v>0.0220856160443194</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.038305713431326</v>
+        <v>0.03838782303928887</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>83</v>
@@ -982,19 +982,19 @@
         <v>86644</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>70237</v>
+        <v>70133</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>107512</v>
+        <v>109733</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05457289831737449</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04423875809290576</v>
+        <v>0.04417367649059276</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06771655195108174</v>
+        <v>0.06911580567807933</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>134</v>
@@ -1003,19 +1003,19 @@
         <v>136510</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>113586</v>
+        <v>113120</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>158364</v>
+        <v>160955</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04160509855455938</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0346184866021429</v>
+        <v>0.0344764569932822</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04826558957468259</v>
+        <v>0.04905531237904773</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1643547</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1628546</v>
+        <v>1628407</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1655614</v>
+        <v>1656013</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9705529701593265</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.961694286568674</v>
+        <v>0.9616121769607112</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9776790489874135</v>
+        <v>0.9779143839556805</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1471</v>
@@ -1053,19 +1053,19 @@
         <v>1501029</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1480161</v>
+        <v>1477940</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1517436</v>
+        <v>1517540</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9454271016826256</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9322834480489183</v>
+        <v>0.9308841943219207</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9557612419070943</v>
+        <v>0.9558263235094073</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3069</v>
@@ -1074,19 +1074,19 @@
         <v>3144576</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3122722</v>
+        <v>3120131</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3167500</v>
+        <v>3167966</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9583949014454406</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9517344104253174</v>
+        <v>0.9509446876209527</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.965381513397857</v>
+        <v>0.9655235430067178</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>13916</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7909</v>
+        <v>7878</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23745</v>
+        <v>23156</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02523637346239809</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01434336349587879</v>
+        <v>0.01428621527141751</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04306166218804211</v>
+        <v>0.04199341938982258</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -1199,19 +1199,19 @@
         <v>19356</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12120</v>
+        <v>11793</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29428</v>
+        <v>29467</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04062935007039837</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0254394488896051</v>
+        <v>0.02475391419725623</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06176936326794635</v>
+        <v>0.06185106267567342</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -1220,19 +1220,19 @@
         <v>33272</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22622</v>
+        <v>22937</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>47251</v>
+        <v>47019</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03237127668506472</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02200961571874419</v>
+        <v>0.02231604619312668</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04597240847929829</v>
+        <v>0.04574647918015321</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>537492</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>527663</v>
+        <v>528252</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>543499</v>
+        <v>543530</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.974763626537602</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.956938337811958</v>
+        <v>0.9580065806101775</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9856566365041213</v>
+        <v>0.9857137847285825</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>434</v>
@@ -1270,19 +1270,19 @@
         <v>457056</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>446984</v>
+        <v>446945</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>464292</v>
+        <v>464619</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9593706499296016</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9382306367320536</v>
+        <v>0.9381489373243262</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9745605511103949</v>
+        <v>0.9752460858027436</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>948</v>
@@ -1291,19 +1291,19 @@
         <v>994548</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>980569</v>
+        <v>980801</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1005198</v>
+        <v>1004883</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9676287233149353</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9540275915207017</v>
+        <v>0.9542535208198468</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9779903842812558</v>
+        <v>0.9776839538068733</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>179083</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>153822</v>
+        <v>154262</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>206786</v>
+        <v>208403</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05465593801256361</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04694640332685313</v>
+        <v>0.04708071442919359</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06311103665684875</v>
+        <v>0.06360439387234765</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>331</v>
@@ -1416,19 +1416,19 @@
         <v>343152</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>307611</v>
+        <v>309388</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>379630</v>
+        <v>380640</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1015484120081016</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09103075032187732</v>
+        <v>0.09155668408846129</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1123433959369891</v>
+        <v>0.1126422731976497</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>514</v>
@@ -1437,19 +1437,19 @@
         <v>522235</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>475510</v>
+        <v>477050</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>564800</v>
+        <v>565543</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07846379512845618</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07144356442974042</v>
+        <v>0.07167498521495064</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08485909684550449</v>
+        <v>0.08497066717122505</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3097460</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3069757</v>
+        <v>3068140</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3122721</v>
+        <v>3122281</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9453440619874364</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9368889633431512</v>
+        <v>0.9363956061276524</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9530535966731468</v>
+        <v>0.9529192855708064</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2966</v>
@@ -1487,19 +1487,19 @@
         <v>3036045</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2999567</v>
+        <v>2998557</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3071586</v>
+        <v>3069809</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8984515879918984</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8876566040630108</v>
+        <v>0.8873577268023503</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9089692496781228</v>
+        <v>0.9084433159115384</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5997</v>
@@ -1508,19 +1508,19 @@
         <v>6133506</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6090941</v>
+        <v>6090198</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6180231</v>
+        <v>6178691</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9215362048715439</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9151409031544956</v>
+        <v>0.915029332828775</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9285564355702596</v>
+        <v>0.9283250147850494</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>78010</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>62264</v>
+        <v>62069</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>95974</v>
+        <v>97543</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08003905999279896</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06388390450615682</v>
+        <v>0.06368369739589612</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09847070583818734</v>
+        <v>0.1000809715852862</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>231</v>
@@ -1872,19 +1872,19 @@
         <v>248338</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>222976</v>
+        <v>220765</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>278833</v>
+        <v>277049</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1856317365583292</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1666736753267311</v>
+        <v>0.1650210397155636</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2084269019325429</v>
+        <v>0.2070938207428983</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>304</v>
@@ -1893,19 +1893,19 @@
         <v>326347</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>293604</v>
+        <v>288182</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>361148</v>
+        <v>359716</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1411267185271871</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.126967400306406</v>
+        <v>0.1246223651832606</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1561763346506359</v>
+        <v>0.155557063017551</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>896633</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>878669</v>
+        <v>877100</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>912379</v>
+        <v>912574</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9199609400072011</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.901529294161813</v>
+        <v>0.8999190284147138</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9361160954938433</v>
+        <v>0.9363163026041039</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1016</v>
@@ -1943,19 +1943,19 @@
         <v>1089459</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1058964</v>
+        <v>1060748</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1114821</v>
+        <v>1117032</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8143682634416708</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7915730980674571</v>
+        <v>0.7929061792571017</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8333263246732688</v>
+        <v>0.8349789602844365</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1851</v>
@@ -1964,19 +1964,19 @@
         <v>1986093</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1951292</v>
+        <v>1952724</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2018836</v>
+        <v>2024258</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8588732814728129</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8438236653493644</v>
+        <v>0.8444429369824491</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.873032599693594</v>
+        <v>0.8753776348167395</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>23867</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14686</v>
+        <v>15121</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37081</v>
+        <v>37589</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01215255950501241</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007477841297795572</v>
+        <v>0.007699106773449824</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01888054630273874</v>
+        <v>0.01913965878369106</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>78</v>
@@ -2089,19 +2089,19 @@
         <v>88240</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>70442</v>
+        <v>70313</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>110030</v>
+        <v>109485</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0503210540233593</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04017143609093279</v>
+        <v>0.04009779419241916</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06274728588269973</v>
+        <v>0.06243641345851818</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>99</v>
@@ -2110,19 +2110,19 @@
         <v>112107</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>91076</v>
+        <v>92602</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>136097</v>
+        <v>135767</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03015663209309337</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02449924396038876</v>
+        <v>0.02490962535860085</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03660976583269448</v>
+        <v>0.03652107237052965</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1940090</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1926876</v>
+        <v>1926368</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1949271</v>
+        <v>1948836</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9878474404949876</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9811194536972612</v>
+        <v>0.9808603412163088</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9925221587022041</v>
+        <v>0.99230089322655</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1554</v>
@@ -2160,19 +2160,19 @@
         <v>1665305</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1643515</v>
+        <v>1644060</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1683103</v>
+        <v>1683232</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9496789459766407</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9372527141173005</v>
+        <v>0.9375635865414821</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9598285639090673</v>
+        <v>0.9599022058075808</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3389</v>
@@ -2181,19 +2181,19 @@
         <v>3605396</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3581406</v>
+        <v>3581736</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3626427</v>
+        <v>3624901</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9698433679069066</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9633902341673055</v>
+        <v>0.9634789276294702</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9755007560396112</v>
+        <v>0.9750903746413991</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>5015</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1038</v>
+        <v>1861</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13291</v>
+        <v>13956</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01042183170872528</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002156214598600196</v>
+        <v>0.003867437756730035</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0276213937043537</v>
+        <v>0.02900361806859829</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -2306,19 +2306,19 @@
         <v>9255</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4276</v>
+        <v>4845</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17243</v>
+        <v>18024</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02017893361432061</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009323105129570483</v>
+        <v>0.01056401103953273</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03759633891012112</v>
+        <v>0.03930022979007714</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -2327,19 +2327,19 @@
         <v>14269</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7502</v>
+        <v>8041</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23497</v>
+        <v>23907</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01518332417518999</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007982782614394213</v>
+        <v>0.008555833252328737</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02500134774354226</v>
+        <v>0.02543828030352025</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>476166</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>467890</v>
+        <v>467225</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>480143</v>
+        <v>479320</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9895781682912748</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9723786062956467</v>
+        <v>0.9709963819314016</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9978437854013998</v>
+        <v>0.99613256224327</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>403</v>
@@ -2377,19 +2377,19 @@
         <v>449376</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>441388</v>
+        <v>440607</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>454355</v>
+        <v>453786</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9798210663856793</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.962403661089879</v>
+        <v>0.960699770209923</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9906768948704294</v>
+        <v>0.9894359889604675</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>837</v>
@@ -2398,19 +2398,19 @@
         <v>925544</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>916316</v>
+        <v>915906</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>932311</v>
+        <v>931772</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.98481667582481</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9749986522564578</v>
+        <v>0.9745617196964798</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9920172173856058</v>
+        <v>0.9914441667476713</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>106891</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>83957</v>
+        <v>88146</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>129475</v>
+        <v>129073</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03125679245278047</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02455048721753322</v>
+        <v>0.02577531130767326</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03786069792630273</v>
+        <v>0.03774315893885241</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>318</v>
@@ -2523,19 +2523,19 @@
         <v>345832</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>310408</v>
+        <v>311862</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>383349</v>
+        <v>388254</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0974183258362433</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0874394961298862</v>
+        <v>0.08784910448495642</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1079863872653311</v>
+        <v>0.1093681538089036</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>416</v>
@@ -2544,19 +2544,19 @@
         <v>452724</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>409742</v>
+        <v>412865</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>494977</v>
+        <v>494078</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06495549018424487</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05878863207634506</v>
+        <v>0.05923667903521097</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07101783125849417</v>
+        <v>0.07088892589399989</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3312891</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3290307</v>
+        <v>3290709</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3335825</v>
+        <v>3331636</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9687432075472195</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9621393020736969</v>
+        <v>0.9622568410611477</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9754495127824667</v>
+        <v>0.9742246886923267</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2973</v>
@@ -2594,19 +2594,19 @@
         <v>3204141</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3166624</v>
+        <v>3161719</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3239565</v>
+        <v>3238111</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9025816741637567</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8920136127346682</v>
+        <v>0.8906318461910964</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.912560503870113</v>
+        <v>0.9121508955150436</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6077</v>
@@ -2615,19 +2615,19 @@
         <v>6517031</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6474778</v>
+        <v>6475677</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6560013</v>
+        <v>6556890</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9350445098157552</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9289821687415056</v>
+        <v>0.9291110741060001</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9412113679236549</v>
+        <v>0.9407633209647891</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>47455</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35895</v>
+        <v>35066</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62200</v>
+        <v>60807</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06290902162667825</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04758378426981664</v>
+        <v>0.04648458424894662</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08245557670327375</v>
+        <v>0.08060919827238822</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>131</v>
@@ -2979,19 +2979,19 @@
         <v>151897</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>127999</v>
+        <v>128319</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>176122</v>
+        <v>176408</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.152712213517098</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1286863453266861</v>
+        <v>0.1290079009139458</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.177067179177725</v>
+        <v>0.1773552069491579</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>181</v>
@@ -3000,19 +3000,19 @@
         <v>199352</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>171199</v>
+        <v>172881</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>226708</v>
+        <v>230947</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1139800927459036</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09788357261462942</v>
+        <v>0.09884526455973376</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1296207537504595</v>
+        <v>0.1320445694200314</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>706892</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>692147</v>
+        <v>693540</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>718452</v>
+        <v>719281</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9370909783733218</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9175444232967263</v>
+        <v>0.9193908017276118</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9524162157301832</v>
+        <v>0.9535154157510534</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>761</v>
@@ -3050,19 +3050,19 @@
         <v>842763</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>818538</v>
+        <v>818252</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>866661</v>
+        <v>866341</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8472877864829019</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8229328208222751</v>
+        <v>0.822644793050842</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8713136546733139</v>
+        <v>0.8709920990860541</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1473</v>
@@ -3071,19 +3071,19 @@
         <v>1549655</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1522299</v>
+        <v>1518060</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1577808</v>
+        <v>1576126</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8860199072540964</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8703792462495404</v>
+        <v>0.8679554305799686</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9021164273853706</v>
+        <v>0.9011547354402663</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>30441</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20955</v>
+        <v>20501</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44838</v>
+        <v>42809</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0146603599502871</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01009208705992294</v>
+        <v>0.009873407839684123</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02159441887125152</v>
+        <v>0.02061698542018968</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>78</v>
@@ -3196,19 +3196,19 @@
         <v>87584</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>70190</v>
+        <v>70799</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>108310</v>
+        <v>107681</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04404963029723437</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03530135810796052</v>
+        <v>0.03560783712106425</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05447382101988172</v>
+        <v>0.05415740621633145</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>107</v>
@@ -3217,19 +3217,19 @@
         <v>118024</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>96657</v>
+        <v>96845</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>141616</v>
+        <v>140200</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02903655089738773</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02377970686830008</v>
+        <v>0.02382598852248865</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03484049454786313</v>
+        <v>0.03449220853152612</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>2045944</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2031547</v>
+        <v>2033576</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2055430</v>
+        <v>2055884</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9853396400497129</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9784055811287485</v>
+        <v>0.9793830145798105</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.989907912940077</v>
+        <v>0.990126592160316</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1830</v>
@@ -3267,19 +3267,19 @@
         <v>1900716</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1879990</v>
+        <v>1880619</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1918110</v>
+        <v>1917501</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9559503697027656</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9455261789801183</v>
+        <v>0.9458425937836685</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9646986418920395</v>
+        <v>0.9643921628789358</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3753</v>
@@ -3288,19 +3288,19 @@
         <v>3946661</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3923069</v>
+        <v>3924485</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3968028</v>
+        <v>3967840</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9709634491026122</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9651595054521369</v>
+        <v>0.965507791468474</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9762202931317</v>
+        <v>0.9761740114775114</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>3816</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9847</v>
+        <v>10104</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006977988487233151</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002038363660964115</v>
+        <v>0.002040962962747925</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01800552453295523</v>
+        <v>0.01847525976580535</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -3413,19 +3413,19 @@
         <v>13642</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6998</v>
+        <v>7699</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22842</v>
+        <v>23606</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02484271490316087</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0127434097751236</v>
+        <v>0.01401994531001912</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04159587886921162</v>
+        <v>0.04298668147240023</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -3434,19 +3434,19 @@
         <v>17458</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10159</v>
+        <v>10575</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28103</v>
+        <v>28129</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01592872244131407</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009268938736012415</v>
+        <v>0.00964878034479676</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02564084234936378</v>
+        <v>0.02566471126980997</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>543070</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>537039</v>
+        <v>536782</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>545771</v>
+        <v>545770</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9930220115127668</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9819944754670449</v>
+        <v>0.9815247402341948</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9979616363390359</v>
+        <v>0.9979590370372521</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>514</v>
@@ -3484,19 +3484,19 @@
         <v>535498</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>526298</v>
+        <v>525534</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>542142</v>
+        <v>541441</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9751572850968391</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9584041211307889</v>
+        <v>0.9570133185276006</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9872565902248764</v>
+        <v>0.9859800546899814</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1012</v>
@@ -3505,19 +3505,19 @@
         <v>1078569</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1067924</v>
+        <v>1067898</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1085868</v>
+        <v>1085452</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.984071277558686</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9743591576506362</v>
+        <v>0.9743352887301899</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9907310612639876</v>
+        <v>0.9903512196552032</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>81712</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>65486</v>
+        <v>65218</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>101810</v>
+        <v>102488</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02419217808678976</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01938816835087205</v>
+        <v>0.01930873025615195</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03014244912511843</v>
+        <v>0.03034329619718395</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>221</v>
@@ -3630,19 +3630,19 @@
         <v>253123</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>220527</v>
+        <v>223806</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>286082</v>
+        <v>291790</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07166352483277544</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06243515975578807</v>
+        <v>0.06336333566779283</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08099496771737486</v>
+        <v>0.08261084087019477</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>303</v>
@@ -3651,19 +3651,19 @@
         <v>334835</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>296779</v>
+        <v>298830</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>370656</v>
+        <v>373805</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04845851701289495</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04295091461118837</v>
+        <v>0.04324772431805281</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05364268050132712</v>
+        <v>0.05409842397932343</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3295906</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3275808</v>
+        <v>3275130</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3312132</v>
+        <v>3312400</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9758078219132102</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9698575508748816</v>
+        <v>0.9696567038028197</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9806118316491279</v>
+        <v>0.9806912697438481</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3105</v>
@@ -3701,19 +3701,19 @@
         <v>3278977</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3246018</v>
+        <v>3240310</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3311573</v>
+        <v>3308294</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9283364751672246</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9190050322826251</v>
+        <v>0.9173891591298047</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9375648402442116</v>
+        <v>0.9366366643322069</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6238</v>
@@ -3722,19 +3722,19 @@
         <v>6574883</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6539062</v>
+        <v>6535913</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6612939</v>
+        <v>6610888</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9515414829871051</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9463573194986729</v>
+        <v>0.9459015760206767</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9570490853888116</v>
+        <v>0.9567522756819472</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>67091</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54513</v>
+        <v>54922</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>82446</v>
+        <v>81507</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1164491702201283</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09461653733068409</v>
+        <v>0.09532720178770195</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1431005123712442</v>
+        <v>0.1414694556406318</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>293</v>
@@ -4086,19 +4086,19 @@
         <v>160263</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>144723</v>
+        <v>143179</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>177959</v>
+        <v>179338</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1954539974461341</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1765012574746259</v>
+        <v>0.1746191223788991</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2170358211061891</v>
+        <v>0.2187172399299398</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>391</v>
@@ -4107,19 +4107,19 @@
         <v>227355</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>204723</v>
+        <v>204998</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>250102</v>
+        <v>250827</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.162850157023203</v>
+        <v>0.1628501570232029</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1466394185541625</v>
+        <v>0.1468366887018456</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1791438104332934</v>
+        <v>0.1796626968657654</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>509052</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>493697</v>
+        <v>494636</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>521630</v>
+        <v>521221</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8835508297798718</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8568994876287556</v>
+        <v>0.8585305443593682</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9053834626693158</v>
+        <v>0.904672798212298</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1131</v>
@@ -4157,19 +4157,19 @@
         <v>659690</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>641994</v>
+        <v>640615</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>675230</v>
+        <v>676774</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8045460025538658</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.782964178893811</v>
+        <v>0.7812827600700603</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8234987425253746</v>
+        <v>0.825380877621101</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1722</v>
@@ -4178,19 +4178,19 @@
         <v>1168742</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1145995</v>
+        <v>1145270</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1191374</v>
+        <v>1191099</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8371498429767971</v>
+        <v>0.8371498429767968</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8208561895667065</v>
+        <v>0.8203373031342346</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8533605814458376</v>
+        <v>0.8531633112981543</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>69509</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>55035</v>
+        <v>54221</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>89757</v>
+        <v>87140</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03118992602179735</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02469504771720368</v>
+        <v>0.02433009476390221</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04027553686027387</v>
+        <v>0.0391012168932409</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>214</v>
@@ -4303,19 +4303,19 @@
         <v>132770</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>113798</v>
+        <v>115479</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>150616</v>
+        <v>150979</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06127683939912528</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05252099165591329</v>
+        <v>0.05329685151697781</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0695132481384606</v>
+        <v>0.06968064309188451</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>292</v>
@@ -4324,19 +4324,19 @@
         <v>202279</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>181058</v>
+        <v>180612</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>226758</v>
+        <v>227754</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04602171697641314</v>
+        <v>0.04602171697641313</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04119371604878781</v>
+        <v>0.04109213845068222</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05159118181530797</v>
+        <v>0.05181766928984465</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2159056</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2138808</v>
+        <v>2141425</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2173530</v>
+        <v>2174344</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9688100739782027</v>
+        <v>0.9688100739782025</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9597244631397261</v>
+        <v>0.9608987831067589</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9753049522827961</v>
+        <v>0.975669905236098</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2700</v>
@@ -4374,19 +4374,19 @@
         <v>2033952</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2016106</v>
+        <v>2015743</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2052924</v>
+        <v>2051243</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9387231606008748</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9304867518615392</v>
+        <v>0.9303193569081151</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9474790083440865</v>
+        <v>0.9467031484830215</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4612</v>
@@ -4395,19 +4395,19 @@
         <v>4193008</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4168529</v>
+        <v>4167533</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4214229</v>
+        <v>4214675</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9539782830235868</v>
+        <v>0.9539782830235867</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9484088181846921</v>
+        <v>0.9481823307101553</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9588062839512121</v>
+        <v>0.9589078615493178</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>11439</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6479</v>
+        <v>6365</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19695</v>
+        <v>19519</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01610019439687494</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009118705051891437</v>
+        <v>0.0089584642049792</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0277197276204876</v>
+        <v>0.02747306770944986</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -4520,19 +4520,19 @@
         <v>34527</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25507</v>
+        <v>25682</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46005</v>
+        <v>46513</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04711924390431466</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03480967047057946</v>
+        <v>0.03504725956539341</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06278250231230978</v>
+        <v>0.06347585933101069</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>64</v>
@@ -4541,19 +4541,19 @@
         <v>45967</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35528</v>
+        <v>35457</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>60855</v>
+        <v>58614</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0318491052540258</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02461653682968505</v>
+        <v>0.0245674798812678</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04216473850735093</v>
+        <v>0.04061246791888446</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>699052</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>690796</v>
+        <v>690972</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>704012</v>
+        <v>704126</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9838998056031252</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9722802723795124</v>
+        <v>0.9725269322905502</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9908812949481085</v>
+        <v>0.9910415357950209</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>951</v>
@@ -4591,19 +4591,19 @@
         <v>698241</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>686763</v>
+        <v>686255</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>707261</v>
+        <v>707086</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9528807560956851</v>
+        <v>0.9528807560956853</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.93721749768769</v>
+        <v>0.9365241406689893</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9651903295294204</v>
+        <v>0.9649527404346065</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1617</v>
@@ -4612,19 +4612,19 @@
         <v>1397292</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1382404</v>
+        <v>1384645</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1407731</v>
+        <v>1407802</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9681508947459744</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9578352614926496</v>
+        <v>0.9593875320811155</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.975383463170315</v>
+        <v>0.9754325201187322</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>148039</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>126649</v>
+        <v>126222</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>171912</v>
+        <v>172026</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04211403692517501</v>
+        <v>0.042114036925175</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03602897538761678</v>
+        <v>0.03590752114198367</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04890520948386824</v>
+        <v>0.04893786227203887</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>557</v>
@@ -4737,19 +4737,19 @@
         <v>327560</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>300743</v>
+        <v>301619</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>355600</v>
+        <v>355795</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08806707853595301</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08085692188736014</v>
+        <v>0.08109241406637906</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0956056894017533</v>
+        <v>0.09565821117837187</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>747</v>
@@ -4758,19 +4758,19 @@
         <v>475600</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>438774</v>
+        <v>441125</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>511433</v>
+        <v>511920</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06573921434392715</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06064908663373531</v>
+        <v>0.060974040452916</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07069222621250634</v>
+        <v>0.07075957491164336</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3367161</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3343288</v>
+        <v>3343174</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3388551</v>
+        <v>3388978</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9578859630748251</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9510947905161318</v>
+        <v>0.9510621377279612</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.963971024612383</v>
+        <v>0.9640924788580164</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4782</v>
@@ -4808,19 +4808,19 @@
         <v>3391883</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3363843</v>
+        <v>3363648</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3418700</v>
+        <v>3417824</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.911932921464047</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9043943105982467</v>
+        <v>0.9043417888216281</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9191430781126402</v>
+        <v>0.9189075859336209</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7951</v>
@@ -4829,19 +4829,19 @@
         <v>6759043</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6723210</v>
+        <v>6722723</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6795869</v>
+        <v>6793518</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9342607856560731</v>
+        <v>0.9342607856560728</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9293077737874937</v>
+        <v>0.9292404250883566</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9393509133662648</v>
+        <v>0.939025959547084</v>
       </c>
     </row>
     <row r="15">
